--- a/Chandrashekaran-annotations/FOSL_Q1_2018.xlsx
+++ b/Chandrashekaran-annotations/FOSL_Q1_2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vm056257\Downloads\Working\PEBU\ML\SubjECTive-QA\Chandrashekaran-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D4C083-E3E4-40D6-8731-2D7C00319B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EF7624-E3CA-4E82-8CDC-527FB3F37DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -495,8 +495,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="88.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,6 +560,24 @@
       <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -573,6 +592,24 @@
       <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -587,6 +624,24 @@
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -601,6 +656,24 @@
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -615,6 +688,24 @@
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -629,6 +720,24 @@
       <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -643,6 +752,24 @@
       <c r="D8" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -657,6 +784,24 @@
       <c r="D9" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -671,6 +816,24 @@
       <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -685,6 +848,24 @@
       <c r="D11" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -698,6 +879,24 @@
       </c>
       <c r="D12" s="2" t="s">
         <v>35</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
